--- a/medicine/Pharmacie/1891_en_santé_et_médecine/1891_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1891_en_santé_et_médecine/1891_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1891_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1891_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1891 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1891_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1891_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7 février : Albert Calmette arrive en Indochine française pour fonder l'Institut Pasteur de Saïgon[1].
-A la fin de cette année-là, et pour la première fois, l'université de Melbourne délivre le diplôme de médecin à deux étudiantes : Margaret Whyte et Grace Stone[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>7 février : Albert Calmette arrive en Indochine française pour fonder l'Institut Pasteur de Saïgon.
+A la fin de cette année-là, et pour la première fois, l'université de Melbourne délivre le diplôme de médecin à deux étudiantes : Margaret Whyte et Grace Stone.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1891_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1891_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Louis Hubert Farabeuf et Henri Varnier, Introduction à l'étude clinique et à la pratique des accouchements. — En ligne, l'édition de 1908.</t>
         </is>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1891_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1891_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +588,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>date inconnue :
 Marcel Boppe, chirurgien français, spécialiste en orthopédie (mort en 1949).</t>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1891_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1891_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,7 +621,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -616,7 +636,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1891_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1891_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -634,7 +654,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Philippe Scherpereel, « Albert Calmette », sur Association du Musée Hospitalier Régional de Lille, 2012
